--- a/exercices/base de donne/ex1 et 2.xlsx
+++ b/exercices/base de donne/ex1 et 2.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
-  <si>
-    <t>une region</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>plage</t>
   </si>
   <si>
-    <t>longueur</t>
-  </si>
-  <si>
     <t>nature terrain</t>
   </si>
   <si>
-    <t>ville</t>
-  </si>
-  <si>
     <t>code postal</t>
   </si>
   <si>
@@ -48,9 +39,6 @@
     <t>nom depart</t>
   </si>
   <si>
-    <t>departement</t>
-  </si>
-  <si>
     <t>definition</t>
   </si>
   <si>
@@ -160,6 +148,36 @@
   </si>
   <si>
     <t>text 1000</t>
+  </si>
+  <si>
+    <t>stagiaire</t>
+  </si>
+  <si>
+    <t>emprunteur</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>echeances</t>
+  </si>
+  <si>
+    <t>nomE</t>
+  </si>
+  <si>
+    <t>montantEmprunt</t>
+  </si>
+  <si>
+    <t>duree</t>
+  </si>
+  <si>
+    <t>premiereEch</t>
+  </si>
+  <si>
+    <t>taux</t>
+  </si>
+  <si>
+    <t>versement</t>
   </si>
 </sst>
 </file>
@@ -198,18 +216,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -232,6 +238,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -380,27 +398,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,239 +745,256 @@
     <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="I12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J12" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G13" s="8" t="s">
+      <c r="H16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G14" s="8" t="s">
+      <c r="I17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G15" s="8" t="s">
+      <c r="I18" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G16" s="8" t="s">
+      <c r="I19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="I20" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="7:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
